--- a/01_Advanced Excel/sep15.xlsx
+++ b/01_Advanced Excel/sep15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\01_Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4C164E-5C6A-42D9-9A99-547CC8ACE08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947B342-99B6-4230-8A9F-10883E27570D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>First Name</t>
   </si>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>Addressing</t>
-  </si>
-  <si>
-    <t>Hi Kavish</t>
-  </si>
-  <si>
-    <t>Hello Dr. Yagnik</t>
   </si>
 </sst>
 </file>
@@ -486,7 +480,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +491,7 @@
     <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -562,6 +556,10 @@
       <c r="J2">
         <v>24</v>
       </c>
+      <c r="K2" t="str">
+        <f>IF(J2&gt;18, _xlfn.CONCAT("Hello ", G2, " ", I2), _xlfn.CONCAT("Hi ", H2))</f>
+        <v>Hello Mr Desai</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -593,6 +591,10 @@
       <c r="J3">
         <v>43</v>
       </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K8" si="2">IF(J3&gt;18, _xlfn.CONCAT("Hello ", G3, " ", I3), _xlfn.CONCAT("Hi ", H3))</f>
+        <v>Hello Mr Purohit</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -624,6 +626,10 @@
       <c r="J4">
         <v>50</v>
       </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>Hello Ms Patel</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -655,8 +661,9 @@
       <c r="J5">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>45</v>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>Hi Kavish</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -689,8 +696,9 @@
       <c r="J6">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>46</v>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>Hello Dr Yagnik</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -723,6 +731,10 @@
       <c r="J7">
         <v>30</v>
       </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>Hello Prof Sheth</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -753,6 +765,10 @@
       </c>
       <c r="J8">
         <v>15</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>Hi Birva</v>
       </c>
     </row>
   </sheetData>
